--- a/coxaxle/src/test/resources/datasheets/Signup.xlsx
+++ b/coxaxle/src/test/resources/datasheets/Signup.xlsx
@@ -10,7 +10,7 @@
     <sheet name="sample" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -47,19 +47,19 @@
     <t>Sabitha</t>
   </si>
   <si>
-    <t>Test111</t>
-  </si>
-  <si>
     <t>Please Check your email to activate</t>
   </si>
   <si>
     <t>AlertMsg</t>
   </si>
   <si>
-    <t>a@vensaiinc.com</t>
-  </si>
-  <si>
-    <t>(276) 222-7999</t>
+    <t>Test11</t>
+  </si>
+  <si>
+    <t>sabitha.adama@gmail.com</t>
+  </si>
+  <si>
+    <t>(276) 323-7999</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
